--- a/DB/ValoriNutrizionali.xlsx
+++ b/DB/ValoriNutrizionali.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flott\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flott\Desktop\ProgettoPalestra\NomeProvvisorio\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B733F17-DECA-470D-8CF2-218E2D599150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A3AC57-E1BD-4270-A62D-3056C00D56A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{613BB105-1F25-4A28-BA8F-7FAACCB93FFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{613BB105-1F25-4A28-BA8F-7FAACCB93FFA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cibi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3700,9 +3700,6 @@
     <t>Latte e prodotti di latte/Yogurt e latte acidulato</t>
   </si>
   <si>
-    <t>ENERGIA (Kcal)</t>
-  </si>
-  <si>
     <t>&lt;0.6</t>
   </si>
   <si>
@@ -3715,27 +3712,12 @@
     <t>nd</t>
   </si>
   <si>
-    <t>LIPIDI (g)</t>
-  </si>
-  <si>
-    <t>ACIDI GRASSI SATURI (g)</t>
-  </si>
-  <si>
-    <t>COLESTEROLO (mg)</t>
-  </si>
-  <si>
-    <t>CARBOIDRATI (g)</t>
-  </si>
-  <si>
     <t>&lt;5</t>
   </si>
   <si>
     <t>&lt;1</t>
   </si>
   <si>
-    <t>ZUCCHERI (g)</t>
-  </si>
-  <si>
     <t>&lt;0.2</t>
   </si>
   <si>
@@ -3745,13 +3727,31 @@
     <t>&lt;0.3</t>
   </si>
   <si>
-    <t>FIBRE (g)</t>
-  </si>
-  <si>
-    <t>PROTEINE (g)</t>
-  </si>
-  <si>
-    <t>SALE (g)</t>
+    <t>ENERGIA</t>
+  </si>
+  <si>
+    <t>LIPIDI</t>
+  </si>
+  <si>
+    <t>ACIDI GRASSI SATURI</t>
+  </si>
+  <si>
+    <t>COLESTEROLO</t>
+  </si>
+  <si>
+    <t>CARBOIDRATI</t>
+  </si>
+  <si>
+    <t>ZUCCHERI</t>
+  </si>
+  <si>
+    <t>FIBRE</t>
+  </si>
+  <si>
+    <t>PROTEINE</t>
+  </si>
+  <si>
+    <t>SALE</t>
   </si>
 </sst>
 </file>
@@ -4105,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B34E4E-C99A-471B-B9ED-218466212AF9}">
   <dimension ref="A1:L1093"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4132,22 +4132,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1221</v>
+        <v>1230</v>
       </c>
       <c r="E1" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="F1" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="G1" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="H1" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="I1" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="J1" t="s">
         <v>1236</v>
@@ -4249,7 +4249,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4556,16 +4556,16 @@
         <v>0.2</v>
       </c>
       <c r="F12" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G12" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J12">
         <v>74.099999999999994</v>
@@ -5544,7 +5544,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -5582,7 +5582,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5620,7 +5620,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5693,10 +5693,10 @@
         <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F42" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0.2</v>
       </c>
       <c r="F45" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5886,7 +5886,7 @@
         <v>0.2</v>
       </c>
       <c r="F47" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6570,16 +6570,16 @@
         <v>41.2</v>
       </c>
       <c r="F65" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G65" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -6757,10 +6757,10 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F70" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6874,7 +6874,7 @@
         <v>0.2</v>
       </c>
       <c r="F73" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7000,7 +7000,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="K76">
         <v>0.6</v>
@@ -7342,7 +7342,7 @@
         <v>3.9</v>
       </c>
       <c r="J85" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K85">
         <v>7.8</v>
@@ -7415,7 +7415,7 @@
         <v>0.4</v>
       </c>
       <c r="I87" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K90">
         <v>0.3</v>
@@ -7561,7 +7561,7 @@
         <v>0.1</v>
       </c>
       <c r="G91" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="H91">
         <v>0.3</v>
@@ -7570,7 +7570,7 @@
         <v>0.1</v>
       </c>
       <c r="J91" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K91">
         <v>0.3</v>
@@ -7608,7 +7608,7 @@
         <v>0.1</v>
       </c>
       <c r="J92" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K92">
         <v>0.3</v>
@@ -8239,10 +8239,10 @@
         <v>253</v>
       </c>
       <c r="E109" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F109" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I117" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>10.1</v>
       </c>
       <c r="G130" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H130">
         <v>71.099999999999994</v>
@@ -9075,10 +9075,10 @@
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F131" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>0.1</v>
       </c>
       <c r="F173" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0.1</v>
       </c>
       <c r="F174" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -12697,7 +12697,7 @@
         <v>3.4</v>
       </c>
       <c r="I226" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -12773,7 +12773,7 @@
         <v>1.7</v>
       </c>
       <c r="I228" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J228">
         <v>2.2000000000000002</v>
@@ -13688,7 +13688,7 @@
         <v>10.8</v>
       </c>
       <c r="J252" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -14667,7 +14667,7 @@
         <v>0.4</v>
       </c>
       <c r="G278" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H278">
         <v>60</v>
@@ -14705,7 +14705,7 @@
         <v>0.3</v>
       </c>
       <c r="G279" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H279">
         <v>65</v>
@@ -14775,10 +14775,10 @@
         <v>354</v>
       </c>
       <c r="E281" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F281" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -14787,7 +14787,7 @@
         <v>88</v>
       </c>
       <c r="I281" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J281">
         <v>0.6</v>
@@ -15386,7 +15386,7 @@
         <v>0.3</v>
       </c>
       <c r="F297" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -15924,10 +15924,10 @@
         <v>2</v>
       </c>
       <c r="H311" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I311" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J311">
         <v>0</v>
@@ -16260,16 +16260,16 @@
         <v>38.299999999999997</v>
       </c>
       <c r="F320" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G320" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H320">
         <v>0</v>
       </c>
       <c r="I320" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J320">
         <v>0</v>
@@ -17362,7 +17362,7 @@
         <v>0.5</v>
       </c>
       <c r="F349" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G349">
         <v>0</v>
@@ -17713,7 +17713,7 @@
         <v>0.5</v>
       </c>
       <c r="I358" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J358">
         <v>2.5</v>
@@ -17979,7 +17979,7 @@
         <v>1.2</v>
       </c>
       <c r="I365" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J365">
         <v>0</v>
@@ -18552,7 +18552,7 @@
         <v>2.9</v>
       </c>
       <c r="J380" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="K380">
         <v>12.7</v>
@@ -19382,10 +19382,10 @@
         <v>86</v>
       </c>
       <c r="H402" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I402" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J402">
         <v>0</v>
@@ -21969,7 +21969,7 @@
         <v>3.3</v>
       </c>
       <c r="I470" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J470">
         <v>0</v>
@@ -22188,7 +22188,7 @@
         <v>0.2</v>
       </c>
       <c r="F476" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G476">
         <v>0</v>
@@ -23410,7 +23410,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I508">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="K508" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L508">
         <v>0.2</v>
@@ -23442,7 +23442,7 @@
         <v>0.5</v>
       </c>
       <c r="F509" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G509">
         <v>0</v>
@@ -23480,7 +23480,7 @@
         <v>0.5</v>
       </c>
       <c r="F510" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -23521,7 +23521,7 @@
         <v>1.5</v>
       </c>
       <c r="G511" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H511">
         <v>68.599999999999994</v>
@@ -24123,7 +24123,7 @@
         <v>401</v>
       </c>
       <c r="E527" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F527">
         <v>0</v>
@@ -24544,7 +24544,7 @@
         <v>0.2</v>
       </c>
       <c r="F538" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G538">
         <v>0</v>
@@ -25114,7 +25114,7 @@
         <v>0</v>
       </c>
       <c r="F553" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G553">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="H576" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I576" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J576">
         <v>3.6</v>
@@ -26643,7 +26643,7 @@
         <v>0.4</v>
       </c>
       <c r="I593" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J593">
         <v>0</v>
@@ -28464,10 +28464,10 @@
         <v>77</v>
       </c>
       <c r="H641" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I641" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J641">
         <v>0</v>
@@ -28762,16 +28762,16 @@
         <v>10.6</v>
       </c>
       <c r="F649" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G649" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H649">
         <v>49.6</v>
       </c>
       <c r="I649" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J649">
         <v>1.3</v>
@@ -31469,7 +31469,7 @@
         <v>12.8</v>
       </c>
       <c r="I720" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J720">
         <v>5</v>
@@ -32600,7 +32600,7 @@
         <v>0.5</v>
       </c>
       <c r="F750" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G750">
         <v>0</v>
@@ -32676,7 +32676,7 @@
         <v>0.3</v>
       </c>
       <c r="F752" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G752">
         <v>0</v>
@@ -33439,7 +33439,7 @@
         <v>0.1</v>
       </c>
       <c r="G772" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H772">
         <v>4.2</v>
@@ -33591,7 +33591,7 @@
         <v>0.5</v>
       </c>
       <c r="G776" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H776">
         <v>62.4</v>
@@ -33664,7 +33664,7 @@
         <v>0.3</v>
       </c>
       <c r="F778" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G778">
         <v>0</v>
@@ -34623,7 +34623,7 @@
         <v>1</v>
       </c>
       <c r="I803" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J803">
         <v>0</v>
@@ -34810,10 +34810,10 @@
         <v>84</v>
       </c>
       <c r="H808" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I808" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J808">
         <v>0</v>
@@ -34848,10 +34848,10 @@
         <v>76</v>
       </c>
       <c r="H809" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I809" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J809">
         <v>0</v>
@@ -35538,7 +35538,7 @@
         <v>1.5</v>
       </c>
       <c r="J827" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="K827">
         <v>1.5</v>
@@ -36748,10 +36748,10 @@
         <v>80</v>
       </c>
       <c r="H859" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I859" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J859">
         <v>0</v>
@@ -38151,13 +38151,13 @@
         <v>0</v>
       </c>
       <c r="G896" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H896">
         <v>73.099999999999994</v>
       </c>
       <c r="I896" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J896">
         <v>0</v>
@@ -38376,7 +38376,7 @@
         <v>0.3</v>
       </c>
       <c r="F902" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G902">
         <v>0</v>
@@ -38452,7 +38452,7 @@
         <v>0.1</v>
       </c>
       <c r="F904" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G904">
         <v>0</v>
@@ -39259,7 +39259,7 @@
         <v>56.5</v>
       </c>
       <c r="I925" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J925">
         <v>4.9000000000000004</v>
@@ -39896,7 +39896,7 @@
         <v>0.1</v>
       </c>
       <c r="F942" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G942">
         <v>0</v>
@@ -40212,7 +40212,7 @@
         <v>2.1</v>
       </c>
       <c r="J950" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="K950">
         <v>8.3000000000000007</v>
@@ -40621,7 +40621,7 @@
         <v>1.5</v>
       </c>
       <c r="G961" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H961">
         <v>2.9</v>
@@ -40630,7 +40630,7 @@
         <v>0.9</v>
       </c>
       <c r="J961" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="K961">
         <v>16.399999999999999</v>
@@ -40706,7 +40706,7 @@
         <v>0.6</v>
       </c>
       <c r="J963" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K963">
         <v>14.7</v>
@@ -42483,7 +42483,7 @@
         <v>1.7</v>
       </c>
       <c r="G1010" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1010">
         <v>0</v>
@@ -42521,7 +42521,7 @@
         <v>1.5</v>
       </c>
       <c r="G1011" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1011">
         <v>0</v>
@@ -44275,7 +44275,7 @@
         <v>1.9</v>
       </c>
       <c r="I1057" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J1057">
         <v>0</v>
@@ -44836,10 +44836,10 @@
         <v>3.3</v>
       </c>
       <c r="F1072" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G1072" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1072">
         <v>13.1</v>
@@ -45444,10 +45444,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F1088" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G1088" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="H1088">
         <v>6.6</v>
@@ -45482,7 +45482,7 @@
         <v>1.2</v>
       </c>
       <c r="F1089" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G1089">
         <v>0</v>
@@ -45494,7 +45494,7 @@
         <v>2</v>
       </c>
       <c r="J1089" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="K1089">
         <v>1.1000000000000001</v>
@@ -45520,10 +45520,10 @@
         <v>0.9</v>
       </c>
       <c r="F1090" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G1090" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="H1090">
         <v>6.7</v>
@@ -45532,7 +45532,7 @@
         <v>1.3</v>
       </c>
       <c r="J1090" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="K1090">
         <v>1.4</v>
